--- a/Team-Roles.xlsx
+++ b/Team-Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taishanahan/Desktop/Pres-Inaug-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A46AD47-45B5-884E-982A-EF408C239E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B49F87-A270-2946-8C69-48FC9B24FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="15060" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,13 +177,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -215,9 +208,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,7 +527,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -746,7 +736,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -805,7 +795,7 @@
       <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1105,7 +1095,7 @@
       <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1285,7 +1275,7 @@
       <c r="E37" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Team-Roles.xlsx
+++ b/Team-Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taishanahan/Desktop/Pres-Inaug-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cde73a511afdd567/Documents/GitHub/Pres-Inaug-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B49F87-A270-2946-8C69-48FC9B24FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{44B49F87-A270-2946-8C69-48FC9B24FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C56849-C904-4785-8C03-59081DDEBEC7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="15060" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,19 +527,19 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.69921875" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.296875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -559,7 +559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -576,10 +576,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -619,7 +619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -636,10 +636,10 @@
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -659,7 +659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -679,7 +679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -696,10 +696,10 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -719,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -739,7 +739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -756,10 +756,10 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -799,7 +799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -816,10 +816,10 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -839,7 +839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -859,7 +859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -876,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -899,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -919,7 +919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -936,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -959,7 +959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -979,7 +979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -996,10 +996,10 @@
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1056,10 +1056,10 @@
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1116,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1176,10 +1176,10 @@
         <v>5</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>

--- a/Team-Roles.xlsx
+++ b/Team-Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cde73a511afdd567/Documents/GitHub/Pres-Inaug-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taishanahan/Desktop/Pres-Inaug-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{44B49F87-A270-2946-8C69-48FC9B24FD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51C56849-C904-4785-8C03-59081DDEBEC7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E4DC0-A5D3-7547-8F13-C44F0FDD4C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="15500" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,19 +527,19 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69921875" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="17.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.296875" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -559,7 +559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -579,7 +579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -619,7 +619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -639,7 +639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -659,7 +659,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -679,7 +679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -699,7 +699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -719,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -739,7 +739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -759,7 +759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -779,7 +779,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -796,10 +796,10 @@
         <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -819,7 +819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -839,7 +839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -859,7 +859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -879,7 +879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -899,7 +899,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -919,7 +919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -939,7 +939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -959,7 +959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -979,7 +979,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -999,7 +999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>

--- a/Team-Roles.xlsx
+++ b/Team-Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taishanahan/Desktop/Pres-Inaug-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816E4DC0-A5D3-7547-8F13-C44F0FDD4C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D64648-B18F-5648-B3B1-B13376C8F4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="15500" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1797F41-B8BE-5742-8ADD-0FFE7E9C715B}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -976,7 +976,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">

--- a/Team-Roles.xlsx
+++ b/Team-Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taishanahan/Desktop/Pres-Inaug-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackg\Desktop\Pres-Inaug-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D64648-B18F-5648-B3B1-B13376C8F4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167318A5-9045-4C0B-ADDE-67412CF1795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="15500" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,13 +524,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1797F41-B8BE-5742-8ADD-0FFE7E9C715B}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -539,7 +540,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -559,7 +560,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -579,7 +580,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -599,7 +600,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -619,7 +620,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -639,7 +640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -656,10 +657,10 @@
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -679,7 +680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -699,7 +700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -719,7 +720,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -739,7 +740,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -759,7 +760,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -776,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -799,7 +800,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -819,7 +820,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -836,10 +837,10 @@
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -859,7 +860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -879,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -896,10 +897,10 @@
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -919,7 +920,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -939,7 +940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -959,7 +960,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -979,7 +980,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -999,7 +1000,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1016,10 +1017,10 @@
         <v>6</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1039,7 +1040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1076,10 +1077,10 @@
         <v>6</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1136,10 +1137,10 @@
         <v>6</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1159,7 +1160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1196,10 +1197,10 @@
         <v>6</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1239,7 +1240,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1256,10 +1257,10 @@
         <v>6</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1280,7 +1281,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F37" xr:uid="{C1797F41-B8BE-5742-8ADD-0FFE7E9C715B}"/>
+  <autoFilter ref="A1:F37" xr:uid="{C1797F41-B8BE-5742-8ADD-0FFE7E9C715B}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Preetam"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Team-Roles.xlsx
+++ b/Team-Roles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jackg\Desktop\Pres-Inaug-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taishanahan/Desktop/Pres-Inaug-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167318A5-9045-4C0B-ADDE-67412CF1795A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9A6901-782F-1B42-AC6A-5A42D7F62B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="14040" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,14 +524,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1797F41-B8BE-5742-8ADD-0FFE7E9C715B}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7.6640625" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -540,7 +539,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
@@ -560,7 +559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -580,7 +579,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -600,7 +599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -620,7 +619,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -640,7 +639,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -660,7 +659,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -680,7 +679,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -700,7 +699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -720,7 +719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -740,7 +739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -760,7 +759,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -780,7 +779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -800,7 +799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -820,7 +819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -840,7 +839,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -860,7 +859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -880,7 +879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -900,7 +899,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -920,7 +919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -940,7 +939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -960,7 +959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -980,7 +979,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1000,7 +999,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1040,7 +1039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1060,7 +1059,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1080,7 +1079,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1097,10 +1096,10 @@
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1120,7 +1119,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1140,7 +1139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1160,7 +1159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1180,7 +1179,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1200,7 +1199,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1217,10 +1216,10 @@
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1277,17 +1276,11 @@
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F37" xr:uid="{C1797F41-B8BE-5742-8ADD-0FFE7E9C715B}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Preetam"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F37" xr:uid="{C1797F41-B8BE-5742-8ADD-0FFE7E9C715B}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Team-Roles.xlsx
+++ b/Team-Roles.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taishanahan/Desktop/Pres-Inaug-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9A6901-782F-1B42-AC6A-5A42D7F62B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2324B64-679E-554C-A09B-EB72255E5A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="14040" xr2:uid="{7EE72846-32B2-FA4F-942E-A4AC999FAD54}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="33">
   <si>
     <t>Term</t>
   </si>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>Sworn in</t>
-  </si>
-  <si>
-    <t>Tentative</t>
   </si>
   <si>
     <t>George H.W. Bush</t>
@@ -527,7 +524,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -576,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -616,7 +613,7 @@
         <v>7</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -636,7 +633,7 @@
         <v>5</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -656,7 +653,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -676,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -696,7 +693,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -736,7 +733,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -756,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -776,7 +773,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,7 +793,7 @@
         <v>7</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -816,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -836,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -876,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -896,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -916,7 +913,7 @@
         <v>7</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -936,7 +933,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -976,7 +973,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -996,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1016,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1056,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1076,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1096,7 +1093,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1107,7 +1104,7 @@
         <v>1989</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -1116,7 +1113,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1136,7 +1133,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1156,7 +1153,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1176,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1196,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1216,7 +1213,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1236,7 +1233,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1256,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1276,7 +1273,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
